--- a/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,01%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 9,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,93; 14,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,31; 17,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 16,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,12; 38,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,35; 52,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,13; 73,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,53; 64,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,22%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 11,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,19; 12,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 8,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 21,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,12; 82,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,8; 64,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,81; 51,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,68; 122,34</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,15%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 11,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 13,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 8,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 8,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 88,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,9; 127,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 69,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 54,68</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,47%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 9,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,09; 12,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,76; 9,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 18,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,44; 55,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,17; 59,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,85; 54,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,72; 92,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,6</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>20,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,75</t>
+          <t>-0,57; 7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,47</t>
+          <t>6,91; 15,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 17,33</t>
+          <t>1,12; 10,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 16,67</t>
+          <t>5,52; 15,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 38,2</t>
+          <t>-1,07; 15,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,35; 52,04</t>
+          <t>12,85; 32,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,13; 73,17</t>
+          <t>2,15; 20,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,53; 64,48</t>
+          <t>10,29; 32,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,29%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>30,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,15</t>
+          <t>9,9; 16,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,45</t>
+          <t>8,33; 15,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,17</t>
+          <t>3,36; 9,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 21,34</t>
+          <t>6,78; 20,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,12; 82,93</t>
+          <t>25,21; 46,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 64,09</t>
+          <t>18,24; 35,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,81; 51,3</t>
+          <t>7,43; 22,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,68; 122,34</t>
+          <t>17,58; 56,71</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 11,47</t>
+          <t>7,95; 21,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 13,62</t>
+          <t>0,73; 13,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 8,97</t>
+          <t>0,29; 12,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 8,79</t>
+          <t>1,63; 11,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 88,06</t>
+          <t>19,03; 57,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 127,73</t>
+          <t>1,57; 35,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 69,44</t>
+          <t>0,5; 33,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 54,68</t>
+          <t>4,01; 32,4</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>27,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,75</t>
+          <t>8,16; 13,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,61</t>
+          <t>9,42; 14,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,85</t>
+          <t>4,21; 9,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 18,64</t>
+          <t>8,06; 16,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,44; 55,32</t>
+          <t>18,61; 31,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,17; 59,26</t>
+          <t>19,92; 32,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,85; 54,71</t>
+          <t>9,23; 20,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,72; 92,43</t>
+          <t>19,69; 42,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>19,45%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 7,73</t>
+          <t>-0,77; 7,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 15,6</t>
+          <t>8,33; 16,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,52</t>
+          <t>0,58; 9,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 15,2</t>
+          <t>5,02; 14,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 15,6</t>
+          <t>-1,26; 14,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 32,38</t>
+          <t>14,5; 32,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 20,02</t>
+          <t>0,97; 18,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 32,32</t>
+          <t>9,25; 30,97</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>51,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,77</t>
+          <t>10,44; 17,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,04</t>
+          <t>9,08; 15,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,7</t>
+          <t>3,36; 9,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 20,19</t>
+          <t>9,18; 36,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,21; 46,58</t>
+          <t>25,63; 47,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 35,62</t>
+          <t>18,77; 34,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 22,8</t>
+          <t>7,07; 21,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 56,71</t>
+          <t>24,63; 139,26</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 21,07</t>
+          <t>8,08; 21,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,64</t>
+          <t>2,57; 16,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 12,85</t>
+          <t>0,02; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 11,75</t>
+          <t>1,55; 12,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 57,67</t>
+          <t>18,87; 56,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 35,62</t>
+          <t>5,21; 38,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 33,93</t>
+          <t>-0,14; 29,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 32,4</t>
+          <t>2,73; 31,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>15,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>39,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,15</t>
+          <t>8,38; 13,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,39</t>
+          <t>10,6; 15,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,23</t>
+          <t>4,21; 9,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,34</t>
+          <t>9,49; 27,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 31,9</t>
+          <t>18,68; 32,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 32,33</t>
+          <t>21,1; 32,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,64</t>
+          <t>8,57; 19,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 42,59</t>
+          <t>22,77; 91,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,3</t>
+          <t>-0,75; 7,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,9</t>
+          <t>8,18; 16,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,92</t>
+          <t>0,05; 9,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,86</t>
+          <t>5,2; 15,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 14,41</t>
+          <t>-1,35; 15,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 32,81</t>
+          <t>14,54; 32,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 18,32</t>
+          <t>0,14; 17,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 30,97</t>
+          <t>9,28; 31,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,49</t>
+          <t>10,51; 17,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,69</t>
+          <t>9,25; 16,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,78</t>
+          <t>3,45; 9,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 36,36</t>
+          <t>9,02; 36,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 47,27</t>
+          <t>25,94; 47,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 34,97</t>
+          <t>18,73; 34,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 21,98</t>
+          <t>7,26; 22,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 139,26</t>
+          <t>23,5; 129,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 21,17</t>
+          <t>7,49; 20,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 16,09</t>
+          <t>1,54; 15,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 12,31</t>
+          <t>0,21; 12,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,24</t>
+          <t>0,67; 11,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 56,93</t>
+          <t>17,93; 56,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 38,51</t>
+          <t>2,97; 38,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 29,37</t>
+          <t>0,43; 29,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 31,29</t>
+          <t>1,41; 30,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,38</t>
+          <t>8,46; 13,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 15,61</t>
+          <t>10,42; 15,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,0</t>
+          <t>4,37; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 27,16</t>
+          <t>9,76; 26,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 32,1</t>
+          <t>18,96; 32,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,1; 32,8</t>
+          <t>20,97; 32,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,35</t>
+          <t>8,94; 19,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 91,16</t>
+          <t>23,18; 84,04</t>
         </is>
       </c>
     </row>
